--- a/Team-Data/2014-15/3-20-2014-15.xlsx
+++ b/Team-Data/2014-15/3-20-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" t="n">
         <v>53</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>0.768</v>
+        <v>0.779</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -690,13 +757,13 @@
         <v>0.465</v>
       </c>
       <c r="L2" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="M2" t="n">
-        <v>26</v>
+        <v>25.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.384</v>
+        <v>0.383</v>
       </c>
       <c r="O2" t="n">
         <v>17.1</v>
@@ -714,19 +781,19 @@
         <v>32</v>
       </c>
       <c r="T2" t="n">
-        <v>40.6</v>
+        <v>40.7</v>
       </c>
       <c r="U2" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="V2" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W2" t="n">
         <v>8.9</v>
       </c>
       <c r="X2" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y2" t="n">
         <v>4.9</v>
@@ -738,13 +805,13 @@
         <v>20.3</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.7</v>
+        <v>102.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>2</v>
@@ -759,10 +826,10 @@
         <v>28</v>
       </c>
       <c r="AI2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ2" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK2" t="n">
         <v>4</v>
@@ -780,16 +847,16 @@
         <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AR2" t="n">
         <v>30</v>
       </c>
       <c r="AS2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT2" t="n">
         <v>28</v>
@@ -798,13 +865,13 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY2" t="n">
         <v>17</v>
@@ -813,13 +880,13 @@
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB2" t="n">
         <v>10</v>
       </c>
       <c r="BC2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E3" t="n">
         <v>30</v>
       </c>
       <c r="F3" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" t="n">
-        <v>0.441</v>
+        <v>0.448</v>
       </c>
       <c r="H3" t="n">
         <v>48.4</v>
@@ -869,16 +936,16 @@
         <v>88.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L3" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M3" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.332</v>
+        <v>0.333</v>
       </c>
       <c r="O3" t="n">
         <v>15</v>
@@ -887,7 +954,7 @@
         <v>20</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.748</v>
+        <v>0.749</v>
       </c>
       <c r="R3" t="n">
         <v>11.2</v>
@@ -896,10 +963,10 @@
         <v>32.6</v>
       </c>
       <c r="T3" t="n">
-        <v>43.9</v>
+        <v>43.8</v>
       </c>
       <c r="U3" t="n">
-        <v>24.3</v>
+        <v>24.4</v>
       </c>
       <c r="V3" t="n">
         <v>14</v>
@@ -908,7 +975,7 @@
         <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y3" t="n">
         <v>5.3</v>
@@ -917,22 +984,22 @@
         <v>21.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.8</v>
+        <v>101</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.9</v>
+        <v>-0.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG3" t="n">
         <v>19</v>
@@ -956,13 +1023,13 @@
         <v>12</v>
       </c>
       <c r="AN3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AO3" t="n">
         <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ3" t="n">
         <v>18</v>
@@ -974,31 +1041,31 @@
         <v>12</v>
       </c>
       <c r="AT3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
       </c>
       <c r="AV3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AW3" t="n">
         <v>11</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
         <v>29</v>
       </c>
       <c r="BB3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC3" t="n">
         <v>19</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -1030,85 +1097,85 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E4" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" t="n">
         <v>39</v>
       </c>
       <c r="G4" t="n">
-        <v>0.418</v>
+        <v>0.409</v>
       </c>
       <c r="H4" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="I4" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J4" t="n">
-        <v>82.5</v>
+        <v>82.2</v>
       </c>
       <c r="K4" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L4" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M4" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="N4" t="n">
-        <v>0.326</v>
+        <v>0.324</v>
       </c>
       <c r="O4" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="P4" t="n">
-        <v>22.2</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.742</v>
+        <v>0.741</v>
       </c>
       <c r="R4" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="S4" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T4" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U4" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V4" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W4" t="n">
         <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>97</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3.5</v>
+        <v>-3.6</v>
       </c>
       <c r="AD4" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
@@ -1120,16 +1187,16 @@
         <v>22</v>
       </c>
       <c r="AH4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ4" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1144,10 +1211,10 @@
         <v>21</v>
       </c>
       <c r="AP4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AQ4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR4" t="n">
         <v>22</v>
@@ -1159,10 +1226,10 @@
         <v>22</v>
       </c>
       <c r="AU4" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AV4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW4" t="n">
         <v>24</v>
@@ -1171,19 +1238,19 @@
         <v>25</v>
       </c>
       <c r="AY4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB4" t="n">
         <v>23</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" t="n">
         <v>29</v>
       </c>
       <c r="F5" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" t="n">
-        <v>0.433</v>
+        <v>0.439</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
@@ -1230,7 +1297,7 @@
         <v>35.8</v>
       </c>
       <c r="J5" t="n">
-        <v>84.40000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="K5" t="n">
         <v>0.424</v>
@@ -1239,31 +1306,31 @@
         <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="N5" t="n">
         <v>0.314</v>
       </c>
       <c r="O5" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P5" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="Q5" t="n">
         <v>0.745</v>
       </c>
       <c r="R5" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S5" t="n">
-        <v>34</v>
+        <v>34.1</v>
       </c>
       <c r="T5" t="n">
-        <v>44</v>
+        <v>44.1</v>
       </c>
       <c r="U5" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V5" t="n">
         <v>12</v>
@@ -1281,28 +1348,28 @@
         <v>18.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="AB5" t="n">
         <v>94.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI5" t="n">
         <v>26</v>
@@ -1341,7 +1408,7 @@
         <v>10</v>
       </c>
       <c r="AU5" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1353,10 +1420,10 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA5" t="n">
         <v>6</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -1394,46 +1461,46 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" t="n">
         <v>28</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>0.594</v>
       </c>
       <c r="H6" t="n">
         <v>48.6</v>
       </c>
       <c r="I6" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J6" t="n">
-        <v>83.09999999999999</v>
+        <v>83.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L6" t="n">
         <v>7.9</v>
       </c>
       <c r="M6" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="N6" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O6" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="P6" t="n">
-        <v>25.3</v>
+        <v>25.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.787</v>
+        <v>0.786</v>
       </c>
       <c r="R6" t="n">
         <v>11.9</v>
@@ -1445,46 +1512,46 @@
         <v>45.9</v>
       </c>
       <c r="U6" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="V6" t="n">
         <v>14.1</v>
       </c>
       <c r="W6" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="X6" t="n">
         <v>6</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z6" t="n">
         <v>18.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.9</v>
+        <v>100.8</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AI6" t="n">
         <v>23</v>
@@ -1523,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="AU6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV6" t="n">
         <v>14</v>
@@ -1532,19 +1599,19 @@
         <v>29</v>
       </c>
       <c r="AX6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA6" t="n">
         <v>4</v>
       </c>
-      <c r="AY6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>5</v>
-      </c>
       <c r="BB6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC6" t="n">
         <v>12</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E7" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="n">
         <v>26</v>
       </c>
       <c r="G7" t="n">
-        <v>0.634</v>
+        <v>0.629</v>
       </c>
       <c r="H7" t="n">
         <v>48.2</v>
@@ -1597,7 +1664,7 @@
         <v>82.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L7" t="n">
         <v>9.800000000000001</v>
@@ -1612,7 +1679,7 @@
         <v>18.4</v>
       </c>
       <c r="P7" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="Q7" t="n">
         <v>0.757</v>
@@ -1624,16 +1691,16 @@
         <v>31.7</v>
       </c>
       <c r="T7" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U7" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V7" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W7" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X7" t="n">
         <v>4.1</v>
@@ -1648,16 +1715,16 @@
         <v>20.9</v>
       </c>
       <c r="AB7" t="n">
-        <v>103.5</v>
+        <v>103.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AD7" t="n">
         <v>1</v>
       </c>
       <c r="AE7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF7" t="n">
         <v>9</v>
@@ -1666,16 +1733,16 @@
         <v>8</v>
       </c>
       <c r="AH7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI7" t="n">
         <v>14</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AL7" t="n">
         <v>6</v>
@@ -1684,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
         <v>6</v>
@@ -1693,7 +1760,7 @@
         <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR7" t="n">
         <v>12</v>
@@ -1705,13 +1772,13 @@
         <v>19</v>
       </c>
       <c r="AU7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV7" t="n">
         <v>12</v>
       </c>
-      <c r="AV7" t="n">
-        <v>11</v>
-      </c>
       <c r="AW7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX7" t="n">
         <v>26</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -1773,13 +1840,13 @@
         <v>48.4</v>
       </c>
       <c r="I8" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="J8" t="n">
         <v>85.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.461</v>
+        <v>0.462</v>
       </c>
       <c r="L8" t="n">
         <v>9.300000000000001</v>
@@ -1788,34 +1855,34 @@
         <v>26.3</v>
       </c>
       <c r="N8" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O8" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P8" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.755</v>
+        <v>0.758</v>
       </c>
       <c r="R8" t="n">
         <v>10.4</v>
       </c>
       <c r="S8" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T8" t="n">
-        <v>42.1</v>
+        <v>42</v>
       </c>
       <c r="U8" t="n">
         <v>22.6</v>
       </c>
       <c r="V8" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W8" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X8" t="n">
         <v>4.7</v>
@@ -1824,31 +1891,31 @@
         <v>3.8</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="AA8" t="n">
-        <v>22</v>
+        <v>21.8</v>
       </c>
       <c r="AB8" t="n">
         <v>104.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF8" t="n">
         <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1866,34 +1933,34 @@
         <v>6</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR8" t="n">
         <v>19</v>
       </c>
       <c r="AS8" t="n">
+        <v>24</v>
+      </c>
+      <c r="AT8" t="n">
         <v>23</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>24</v>
       </c>
       <c r="AU8" t="n">
         <v>8</v>
       </c>
       <c r="AV8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX8" t="n">
         <v>16</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" t="n">
         <v>26</v>
       </c>
       <c r="F9" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" t="n">
-        <v>0.371</v>
+        <v>0.377</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
@@ -1958,37 +2025,37 @@
         <v>37.4</v>
       </c>
       <c r="J9" t="n">
-        <v>86.7</v>
+        <v>86.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0.431</v>
+        <v>0.43</v>
       </c>
       <c r="L9" t="n">
         <v>7.8</v>
       </c>
       <c r="M9" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.319</v>
+        <v>0.32</v>
       </c>
       <c r="O9" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="P9" t="n">
         <v>24.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.729</v>
+        <v>0.731</v>
       </c>
       <c r="R9" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="S9" t="n">
-        <v>32.6</v>
+        <v>32.7</v>
       </c>
       <c r="T9" t="n">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="U9" t="n">
         <v>21.6</v>
@@ -1997,28 +2064,28 @@
         <v>14.1</v>
       </c>
       <c r="W9" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="X9" t="n">
         <v>4.7</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.2</v>
+        <v>100.3</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>23</v>
@@ -2030,13 +2097,13 @@
         <v>23</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK9" t="n">
         <v>26</v>
@@ -2063,37 +2130,37 @@
         <v>4</v>
       </c>
       <c r="AS9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AT9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AV9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW9" t="n">
         <v>17</v>
       </c>
       <c r="AX9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BB9" t="n">
         <v>15</v>
       </c>
       <c r="BC9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -2200,13 +2267,13 @@
         <v>-2</v>
       </c>
       <c r="AD10" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AG10" t="n">
         <v>24</v>
@@ -2233,7 +2300,7 @@
         <v>22</v>
       </c>
       <c r="AO10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
         <v>16</v>
@@ -2260,7 +2327,7 @@
         <v>16</v>
       </c>
       <c r="AX10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AY10" t="n">
         <v>18</v>
@@ -2272,7 +2339,7 @@
         <v>22</v>
       </c>
       <c r="BB10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BC10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -2304,22 +2371,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" t="n">
         <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="H11" t="n">
         <v>48.1</v>
       </c>
       <c r="I11" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="J11" t="n">
         <v>86.8</v>
@@ -2328,28 +2395,28 @@
         <v>0.478</v>
       </c>
       <c r="L11" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="M11" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.393</v>
+        <v>0.394</v>
       </c>
       <c r="O11" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P11" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="R11" t="n">
         <v>10.2</v>
       </c>
       <c r="S11" t="n">
-        <v>34.2</v>
+        <v>34.3</v>
       </c>
       <c r="T11" t="n">
         <v>44.5</v>
@@ -2358,7 +2425,7 @@
         <v>27.3</v>
       </c>
       <c r="V11" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W11" t="n">
         <v>9.5</v>
@@ -2376,13 +2443,13 @@
         <v>18.9</v>
       </c>
       <c r="AB11" t="n">
-        <v>109.8</v>
+        <v>109.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE11" t="n">
         <v>1</v>
@@ -2400,7 +2467,7 @@
         <v>1</v>
       </c>
       <c r="AJ11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK11" t="n">
         <v>1</v>
@@ -2415,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP11" t="n">
         <v>26</v>
@@ -2424,7 +2491,7 @@
         <v>8</v>
       </c>
       <c r="AR11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS11" t="n">
         <v>4</v>
@@ -2439,7 +2506,7 @@
         <v>19</v>
       </c>
       <c r="AW11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX11" t="n">
         <v>1</v>
@@ -2448,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="AZ11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA11" t="n">
         <v>27</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E12" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F12" t="n">
         <v>22</v>
       </c>
       <c r="G12" t="n">
-        <v>0.672</v>
+        <v>0.676</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J12" t="n">
-        <v>84.3</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K12" t="n">
         <v>0.439</v>
@@ -2516,25 +2583,25 @@
         <v>33.4</v>
       </c>
       <c r="N12" t="n">
-        <v>0.343</v>
+        <v>0.344</v>
       </c>
       <c r="O12" t="n">
-        <v>17.8</v>
+        <v>18</v>
       </c>
       <c r="P12" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.722</v>
+        <v>0.72</v>
       </c>
       <c r="R12" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S12" t="n">
         <v>31.8</v>
       </c>
       <c r="T12" t="n">
-        <v>43.7</v>
+        <v>43.8</v>
       </c>
       <c r="U12" t="n">
         <v>22.1</v>
@@ -2546,25 +2613,25 @@
         <v>9.5</v>
       </c>
       <c r="X12" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y12" t="n">
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.6</v>
+        <v>20.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>103.2</v>
+        <v>103.3</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
         <v>4</v>
@@ -2576,13 +2643,13 @@
         <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK12" t="n">
         <v>22</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AQ12" t="n">
         <v>27</v>
@@ -2612,31 +2679,31 @@
         <v>21</v>
       </c>
       <c r="AT12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV12" t="n">
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BB12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" t="n">
         <v>30</v>
       </c>
       <c r="F13" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G13" t="n">
-        <v>0.441</v>
+        <v>0.448</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2701,13 +2768,13 @@
         <v>0.338</v>
       </c>
       <c r="O13" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P13" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.767</v>
+        <v>0.765</v>
       </c>
       <c r="R13" t="n">
         <v>10.3</v>
@@ -2722,7 +2789,7 @@
         <v>21.4</v>
       </c>
       <c r="V13" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W13" t="n">
         <v>6.2</v>
@@ -2740,25 +2807,25 @@
         <v>21.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>96.3</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE13" t="n">
         <v>19</v>
       </c>
       <c r="AF13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AG13" t="n">
         <v>19</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI13" t="n">
         <v>24</v>
@@ -2776,19 +2843,19 @@
         <v>18</v>
       </c>
       <c r="AN13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP13" t="n">
         <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AS13" t="n">
         <v>3</v>
@@ -2797,10 +2864,10 @@
         <v>5</v>
       </c>
       <c r="AU13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW13" t="n">
         <v>28</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -2850,58 +2917,58 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="n">
         <v>25</v>
       </c>
       <c r="G14" t="n">
-        <v>0.643</v>
+        <v>0.638</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39.3</v>
+        <v>39.2</v>
       </c>
       <c r="J14" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.471</v>
+        <v>0.47</v>
       </c>
       <c r="L14" t="n">
         <v>10</v>
       </c>
       <c r="M14" t="n">
-        <v>26.7</v>
+        <v>26.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.375</v>
+        <v>0.373</v>
       </c>
       <c r="O14" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="P14" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.712</v>
+        <v>0.713</v>
       </c>
       <c r="R14" t="n">
         <v>9.5</v>
       </c>
       <c r="S14" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T14" t="n">
         <v>42.2</v>
       </c>
       <c r="U14" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="V14" t="n">
         <v>12.3</v>
@@ -2913,25 +2980,25 @@
         <v>4.9</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="Z14" t="n">
         <v>21.4</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="AC14" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
@@ -2943,7 +3010,7 @@
         <v>29</v>
       </c>
       <c r="AI14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ14" t="n">
         <v>15</v>
@@ -2988,7 +3055,7 @@
         <v>14</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3003,7 +3070,7 @@
         <v>2</v>
       </c>
       <c r="BC14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -3032,55 +3099,55 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E15" t="n">
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" t="n">
-        <v>0.258</v>
+        <v>0.254</v>
       </c>
       <c r="H15" t="n">
         <v>48.6</v>
       </c>
       <c r="I15" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.436</v>
+        <v>0.435</v>
       </c>
       <c r="L15" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="M15" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N15" t="n">
         <v>0.344</v>
       </c>
       <c r="O15" t="n">
-        <v>17.3</v>
+        <v>17.5</v>
       </c>
       <c r="P15" t="n">
-        <v>23.3</v>
+        <v>23.6</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.741</v>
+        <v>0.743</v>
       </c>
       <c r="R15" t="n">
         <v>11.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="T15" t="n">
-        <v>44.3</v>
+        <v>44.1</v>
       </c>
       <c r="U15" t="n">
         <v>20.9</v>
@@ -3095,22 +3162,22 @@
         <v>4.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA15" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB15" t="n">
-        <v>98.8</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.9</v>
+        <v>-6.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,16 +3189,16 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AJ15" t="n">
         <v>7</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
         <v>25</v>
@@ -3140,22 +3207,22 @@
         <v>24</v>
       </c>
       <c r="AN15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AO15" t="n">
         <v>12</v>
       </c>
       <c r="AP15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS15" t="n">
         <v>13</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>9</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>11</v>
       </c>
       <c r="AT15" t="n">
         <v>9</v>
@@ -3167,7 +3234,7 @@
         <v>5</v>
       </c>
       <c r="AW15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX15" t="n">
         <v>21</v>
@@ -3176,13 +3243,13 @@
         <v>15</v>
       </c>
       <c r="AZ15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
         <v>23</v>
       </c>
       <c r="BB15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC15" t="n">
         <v>27</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" t="n">
         <v>21</v>
       </c>
       <c r="G16" t="n">
-        <v>0.696</v>
+        <v>0.6909999999999999</v>
       </c>
       <c r="H16" t="n">
         <v>48.7</v>
@@ -3232,67 +3299,67 @@
         <v>37.8</v>
       </c>
       <c r="J16" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L16" t="n">
         <v>5.1</v>
       </c>
       <c r="M16" t="n">
-        <v>15.2</v>
+        <v>15.1</v>
       </c>
       <c r="N16" t="n">
-        <v>0.339</v>
+        <v>0.337</v>
       </c>
       <c r="O16" t="n">
         <v>18.2</v>
       </c>
       <c r="P16" t="n">
-        <v>23.5</v>
+        <v>23.4</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.777</v>
+        <v>0.778</v>
       </c>
       <c r="R16" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S16" t="n">
         <v>32.3</v>
       </c>
       <c r="T16" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U16" t="n">
         <v>21.8</v>
       </c>
       <c r="V16" t="n">
-        <v>13.5</v>
+        <v>13.4</v>
       </c>
       <c r="W16" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X16" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y16" t="n">
         <v>5.3</v>
       </c>
       <c r="Z16" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA16" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AB16" t="n">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3304,16 +3371,16 @@
         <v>3</v>
       </c>
       <c r="AH16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AI16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ16" t="n">
         <v>20</v>
       </c>
       <c r="AK16" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AL16" t="n">
         <v>29</v>
@@ -3322,19 +3389,19 @@
         <v>29</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>7</v>
       </c>
       <c r="AP16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ16" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AR16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AS16" t="n">
         <v>14</v>
@@ -3343,7 +3410,7 @@
         <v>20</v>
       </c>
       <c r="AU16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV16" t="n">
         <v>6</v>
@@ -3352,7 +3419,7 @@
         <v>6</v>
       </c>
       <c r="AX16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY16" t="n">
         <v>22</v>
@@ -3361,7 +3428,7 @@
         <v>9</v>
       </c>
       <c r="BA16" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB16" t="n">
         <v>17</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -3396,43 +3463,43 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" t="n">
         <v>36</v>
       </c>
       <c r="G17" t="n">
-        <v>0.471</v>
+        <v>0.463</v>
       </c>
       <c r="H17" t="n">
         <v>48.1</v>
       </c>
       <c r="I17" t="n">
-        <v>35.1</v>
+        <v>35</v>
       </c>
       <c r="J17" t="n">
         <v>76.40000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L17" t="n">
         <v>6.9</v>
       </c>
       <c r="M17" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.342</v>
+        <v>0.341</v>
       </c>
       <c r="O17" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P17" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q17" t="n">
         <v>0.743</v>
@@ -3441,22 +3508,22 @@
         <v>8.800000000000001</v>
       </c>
       <c r="S17" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="T17" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="U17" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V17" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="W17" t="n">
         <v>8.1</v>
       </c>
       <c r="X17" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y17" t="n">
         <v>4.2</v>
@@ -3468,13 +3535,13 @@
         <v>20.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.09999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>-2</v>
+        <v>-2.2</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
@@ -3507,13 +3574,13 @@
         <v>19</v>
       </c>
       <c r="AO17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP17" t="n">
         <v>10</v>
       </c>
       <c r="AQ17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3534,7 +3601,7 @@
         <v>10</v>
       </c>
       <c r="AX17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY17" t="n">
         <v>6</v>
@@ -3549,7 +3616,7 @@
         <v>26</v>
       </c>
       <c r="BC17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -3578,28 +3645,28 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" t="n">
         <v>34</v>
       </c>
       <c r="F18" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" t="n">
-        <v>0.493</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
-        <v>48.7</v>
+        <v>48.5</v>
       </c>
       <c r="I18" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J18" t="n">
-        <v>81.90000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K18" t="n">
-        <v>0.456</v>
+        <v>0.458</v>
       </c>
       <c r="L18" t="n">
         <v>6.8</v>
@@ -3608,31 +3675,31 @@
         <v>18.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.37</v>
+        <v>0.369</v>
       </c>
       <c r="O18" t="n">
         <v>16.2</v>
       </c>
       <c r="P18" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R18" t="n">
-        <v>10.5</v>
+        <v>10.1</v>
       </c>
       <c r="S18" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T18" t="n">
-        <v>42.2</v>
+        <v>41.6</v>
       </c>
       <c r="U18" t="n">
         <v>23.2</v>
       </c>
       <c r="V18" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="W18" t="n">
         <v>9.4</v>
@@ -3644,19 +3711,19 @@
         <v>4.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3668,16 +3735,16 @@
         <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ18" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AL18" t="n">
         <v>23</v>
@@ -3695,16 +3762,16 @@
         <v>25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AR18" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AS18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AU18" t="n">
         <v>7</v>
@@ -3716,22 +3783,22 @@
         <v>4</v>
       </c>
       <c r="AX18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY18" t="n">
         <v>14</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
         <v>20</v>
       </c>
       <c r="BB18" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BC18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -3838,7 +3905,7 @@
         <v>-8</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AE19" t="n">
         <v>29</v>
@@ -3856,10 +3923,10 @@
         <v>21</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL19" t="n">
         <v>30</v>
@@ -3877,7 +3944,7 @@
         <v>2</v>
       </c>
       <c r="AQ19" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AR19" t="n">
         <v>3</v>
@@ -3886,16 +3953,16 @@
         <v>30</v>
       </c>
       <c r="AT19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX19" t="n">
         <v>27</v>
@@ -3907,10 +3974,10 @@
         <v>10</v>
       </c>
       <c r="BA19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC19" t="n">
         <v>28</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -3945,64 +4012,64 @@
         <v>68</v>
       </c>
       <c r="E20" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F20" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G20" t="n">
-        <v>0.529</v>
+        <v>0.544</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
       </c>
       <c r="I20" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J20" t="n">
-        <v>82.8</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M20" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.363</v>
+        <v>0.359</v>
       </c>
       <c r="O20" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="P20" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.769</v>
+        <v>0.761</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.7</v>
       </c>
       <c r="S20" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T20" t="n">
-        <v>43.6</v>
+        <v>43.9</v>
       </c>
       <c r="U20" t="n">
         <v>22</v>
       </c>
       <c r="V20" t="n">
-        <v>13.7</v>
+        <v>13.5</v>
       </c>
       <c r="W20" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="X20" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="Y20" t="n">
         <v>5.9</v>
@@ -4011,16 +4078,16 @@
         <v>18.7</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB20" t="n">
-        <v>99.2</v>
+        <v>99.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AD20" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
@@ -4035,7 +4102,7 @@
         <v>21</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ20" t="n">
         <v>18</v>
@@ -4044,34 +4111,34 @@
         <v>11</v>
       </c>
       <c r="AL20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM20" t="n">
         <v>23</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP20" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ20" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AR20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AS20" t="n">
         <v>17</v>
       </c>
       <c r="AT20" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AU20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV20" t="n">
         <v>7</v>
@@ -4080,7 +4147,7 @@
         <v>25</v>
       </c>
       <c r="AX20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY20" t="n">
         <v>28</v>
@@ -4095,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -4124,46 +4191,46 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" t="n">
         <v>14</v>
       </c>
       <c r="F21" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" t="n">
-        <v>0.203</v>
+        <v>0.206</v>
       </c>
       <c r="H21" t="n">
         <v>48.5</v>
       </c>
       <c r="I21" t="n">
-        <v>35.4</v>
+        <v>35.6</v>
       </c>
       <c r="J21" t="n">
-        <v>82.40000000000001</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.429</v>
+        <v>0.43</v>
       </c>
       <c r="L21" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M21" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.347</v>
+        <v>0.345</v>
       </c>
       <c r="O21" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="P21" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.765</v>
+        <v>0.763</v>
       </c>
       <c r="R21" t="n">
         <v>10.8</v>
@@ -4175,7 +4242,7 @@
         <v>40.6</v>
       </c>
       <c r="U21" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="V21" t="n">
         <v>14.3</v>
@@ -4184,25 +4251,25 @@
         <v>7.1</v>
       </c>
       <c r="X21" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y21" t="n">
         <v>4.3</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="AA21" t="n">
         <v>19.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>92.3</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>-8.9</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE21" t="n">
         <v>30</v>
@@ -4214,13 +4281,13 @@
         <v>30</v>
       </c>
       <c r="AH21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI21" t="n">
         <v>27</v>
       </c>
       <c r="AJ21" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AK21" t="n">
         <v>27</v>
@@ -4232,7 +4299,7 @@
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO21" t="n">
         <v>29</v>
@@ -4241,10 +4308,10 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS21" t="n">
         <v>29</v>
@@ -4253,16 +4320,16 @@
         <v>29</v>
       </c>
       <c r="AU21" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW21" t="n">
         <v>23</v>
       </c>
       <c r="AX21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AY21" t="n">
         <v>8</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F22" t="n">
         <v>30</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5649999999999999</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4327,25 +4394,25 @@
         <v>86.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L22" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="M22" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="N22" t="n">
-        <v>0.333</v>
+        <v>0.331</v>
       </c>
       <c r="O22" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P22" t="n">
         <v>24.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.769</v>
+        <v>0.766</v>
       </c>
       <c r="R22" t="n">
         <v>12.6</v>
@@ -4354,16 +4421,16 @@
         <v>35.1</v>
       </c>
       <c r="T22" t="n">
-        <v>47.6</v>
+        <v>47.7</v>
       </c>
       <c r="U22" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V22" t="n">
         <v>14.9</v>
       </c>
       <c r="W22" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X22" t="n">
         <v>5.9</v>
@@ -4378,13 +4445,13 @@
         <v>20.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.4</v>
+        <v>103.1</v>
       </c>
       <c r="AC22" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
         <v>13</v>
@@ -4399,7 +4466,7 @@
         <v>13</v>
       </c>
       <c r="AI22" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AJ22" t="n">
         <v>4</v>
@@ -4414,7 +4481,7 @@
         <v>15</v>
       </c>
       <c r="AN22" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO22" t="n">
         <v>5</v>
@@ -4423,7 +4490,7 @@
         <v>7</v>
       </c>
       <c r="AQ22" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AR22" t="n">
         <v>2</v>
@@ -4438,7 +4505,7 @@
         <v>22</v>
       </c>
       <c r="AV22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW22" t="n">
         <v>22</v>
@@ -4447,16 +4514,16 @@
         <v>6</v>
       </c>
       <c r="AY22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ22" t="n">
         <v>29</v>
       </c>
       <c r="BA22" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC22" t="n">
         <v>11</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -4491,28 +4558,28 @@
         <v>70</v>
       </c>
       <c r="E23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G23" t="n">
-        <v>0.314</v>
+        <v>0.3</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
       </c>
       <c r="I23" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J23" t="n">
-        <v>82.5</v>
+        <v>82.3</v>
       </c>
       <c r="K23" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
         <v>19.6</v>
@@ -4521,52 +4588,52 @@
         <v>0.354</v>
       </c>
       <c r="O23" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="P23" t="n">
         <v>19.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.726</v>
+        <v>0.725</v>
       </c>
       <c r="R23" t="n">
         <v>9.6</v>
       </c>
       <c r="S23" t="n">
-        <v>31.6</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
         <v>41.2</v>
       </c>
       <c r="U23" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V23" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W23" t="n">
         <v>7.9</v>
       </c>
       <c r="X23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="Z23" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA23" t="n">
         <v>18.2</v>
       </c>
       <c r="AB23" t="n">
-        <v>96.2</v>
+        <v>95.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.6</v>
+        <v>-6</v>
       </c>
       <c r="AD23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
         <v>26</v>
@@ -4581,22 +4648,22 @@
         <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ23" t="n">
         <v>21</v>
       </c>
       <c r="AK23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
       </c>
       <c r="AN23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO23" t="n">
         <v>30</v>
@@ -4611,25 +4678,25 @@
         <v>27</v>
       </c>
       <c r="AS23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT23" t="n">
         <v>27</v>
       </c>
       <c r="AU23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX23" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY23" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>18</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -4670,25 +4737,25 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" t="n">
         <v>52</v>
       </c>
       <c r="G24" t="n">
-        <v>0.246</v>
+        <v>0.235</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="J24" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K24" t="n">
         <v>0.409</v>
@@ -4697,34 +4764,34 @@
         <v>8.1</v>
       </c>
       <c r="M24" t="n">
-        <v>25.6</v>
+        <v>25.5</v>
       </c>
       <c r="N24" t="n">
-        <v>0.318</v>
+        <v>0.317</v>
       </c>
       <c r="O24" t="n">
-        <v>16</v>
+        <v>16.1</v>
       </c>
       <c r="P24" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.674</v>
+        <v>0.673</v>
       </c>
       <c r="R24" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S24" t="n">
         <v>31.3</v>
       </c>
       <c r="T24" t="n">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="U24" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V24" t="n">
-        <v>18.1</v>
+        <v>18.2</v>
       </c>
       <c r="W24" t="n">
         <v>9.800000000000001</v>
@@ -4742,16 +4809,16 @@
         <v>20.2</v>
       </c>
       <c r="AB24" t="n">
-        <v>91.09999999999999</v>
+        <v>91</v>
       </c>
       <c r="AC24" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF24" t="n">
         <v>28</v>
@@ -4760,13 +4827,13 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
       </c>
       <c r="AJ24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK24" t="n">
         <v>30</v>
@@ -4790,7 +4857,7 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AS24" t="n">
         <v>26</v>
@@ -4799,7 +4866,7 @@
         <v>18</v>
       </c>
       <c r="AU24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
@@ -4808,16 +4875,16 @@
         <v>1</v>
       </c>
       <c r="AX24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BA24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>0.4</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AF25" t="n">
         <v>15</v>
@@ -4942,16 +5009,16 @@
         <v>15</v>
       </c>
       <c r="AH25" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ25" t="n">
         <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL25" t="n">
         <v>8</v>
@@ -4966,22 +5033,22 @@
         <v>17</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR25" t="n">
         <v>13</v>
       </c>
       <c r="AS25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT25" t="n">
         <v>17</v>
       </c>
       <c r="AU25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV25" t="n">
         <v>25</v>
@@ -5005,7 +5072,7 @@
         <v>5</v>
       </c>
       <c r="BC25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" t="n">
         <v>44</v>
       </c>
       <c r="F26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G26" t="n">
-        <v>0.657</v>
+        <v>0.667</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
@@ -5052,28 +5119,28 @@
         <v>38.4</v>
       </c>
       <c r="J26" t="n">
-        <v>85.8</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.448</v>
+        <v>0.447</v>
       </c>
       <c r="L26" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="M26" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.363</v>
+        <v>0.364</v>
       </c>
       <c r="O26" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="P26" t="n">
         <v>20</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.799</v>
+        <v>0.797</v>
       </c>
       <c r="R26" t="n">
         <v>10.8</v>
@@ -5085,7 +5152,7 @@
         <v>46</v>
       </c>
       <c r="U26" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="V26" t="n">
         <v>13.8</v>
@@ -5097,7 +5164,7 @@
         <v>4.7</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z26" t="n">
         <v>18.4</v>
@@ -5109,25 +5176,25 @@
         <v>102.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AE26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG26" t="n">
         <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ26" t="n">
         <v>8</v>
@@ -5148,13 +5215,13 @@
         <v>26</v>
       </c>
       <c r="AP26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ26" t="n">
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -5163,7 +5230,7 @@
         <v>2</v>
       </c>
       <c r="AU26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV26" t="n">
         <v>9</v>
@@ -5172,7 +5239,7 @@
         <v>26</v>
       </c>
       <c r="AX26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" t="n">
         <v>45</v>
       </c>
       <c r="G27" t="n">
-        <v>0.338</v>
+        <v>0.328</v>
       </c>
       <c r="H27" t="n">
         <v>48.5</v>
@@ -5240,28 +5307,28 @@
         <v>0.451</v>
       </c>
       <c r="L27" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M27" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="N27" t="n">
-        <v>0.333</v>
+        <v>0.331</v>
       </c>
       <c r="O27" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="P27" t="n">
         <v>29.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.777</v>
+        <v>0.778</v>
       </c>
       <c r="R27" t="n">
         <v>11.1</v>
       </c>
       <c r="S27" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="T27" t="n">
         <v>44.6</v>
@@ -5270,31 +5337,31 @@
         <v>19.9</v>
       </c>
       <c r="V27" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="W27" t="n">
         <v>6.5</v>
       </c>
       <c r="X27" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z27" t="n">
         <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>24.2</v>
+        <v>24.3</v>
       </c>
       <c r="AB27" t="n">
         <v>101</v>
       </c>
       <c r="AC27" t="n">
-        <v>-4.3</v>
+        <v>-4.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5306,10 +5373,10 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ27" t="n">
         <v>28</v>
@@ -5324,7 +5391,7 @@
         <v>28</v>
       </c>
       <c r="AN27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO27" t="n">
         <v>1</v>
@@ -5339,10 +5406,10 @@
         <v>14</v>
       </c>
       <c r="AS27" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT27" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU27" t="n">
         <v>30</v>
@@ -5357,7 +5424,7 @@
         <v>28</v>
       </c>
       <c r="AY27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ27" t="n">
         <v>17</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -5416,46 +5483,46 @@
         <v>38.5</v>
       </c>
       <c r="J28" t="n">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="K28" t="n">
-        <v>0.459</v>
+        <v>0.46</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="N28" t="n">
-        <v>0.361</v>
+        <v>0.366</v>
       </c>
       <c r="O28" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P28" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.775</v>
+        <v>0.774</v>
       </c>
       <c r="R28" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S28" t="n">
-        <v>33.7</v>
+        <v>33.6</v>
       </c>
       <c r="T28" t="n">
-        <v>43.5</v>
+        <v>43.4</v>
       </c>
       <c r="U28" t="n">
-        <v>24.2</v>
+        <v>24.1</v>
       </c>
       <c r="V28" t="n">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="W28" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X28" t="n">
         <v>5.5</v>
@@ -5464,7 +5531,7 @@
         <v>4.7</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA28" t="n">
         <v>20.1</v>
@@ -5473,10 +5540,10 @@
         <v>102.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AE28" t="n">
         <v>9</v>
@@ -5491,13 +5558,13 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AJ28" t="n">
         <v>14</v>
       </c>
       <c r="AK28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5506,7 +5573,7 @@
         <v>14</v>
       </c>
       <c r="AN28" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AO28" t="n">
         <v>14</v>
@@ -5521,7 +5588,7 @@
         <v>26</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT28" t="n">
         <v>16</v>
@@ -5533,7 +5600,7 @@
         <v>10</v>
       </c>
       <c r="AW28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX28" t="n">
         <v>7</v>
@@ -5545,7 +5612,7 @@
         <v>11</v>
       </c>
       <c r="BA28" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB28" t="n">
         <v>11</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E29" t="n">
         <v>41</v>
       </c>
       <c r="F29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G29" t="n">
-        <v>0.594</v>
+        <v>0.603</v>
       </c>
       <c r="H29" t="n">
         <v>48.4</v>
       </c>
       <c r="I29" t="n">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="J29" t="n">
-        <v>83.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="K29" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L29" t="n">
         <v>8.9</v>
@@ -5610,7 +5677,7 @@
         <v>25.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O29" t="n">
         <v>19.5</v>
@@ -5619,28 +5686,28 @@
         <v>24.8</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.787</v>
+        <v>0.786</v>
       </c>
       <c r="R29" t="n">
         <v>10.8</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="T29" t="n">
-        <v>41.5</v>
+        <v>41.6</v>
       </c>
       <c r="U29" t="n">
         <v>20.8</v>
       </c>
       <c r="V29" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="W29" t="n">
         <v>7.7</v>
       </c>
       <c r="X29" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y29" t="n">
         <v>5.2</v>
@@ -5652,22 +5719,22 @@
         <v>20.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>104.3</v>
+        <v>104.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF29" t="n">
         <v>10</v>
       </c>
       <c r="AG29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH29" t="n">
         <v>13</v>
@@ -5694,7 +5761,7 @@
         <v>4</v>
       </c>
       <c r="AP29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ29" t="n">
         <v>3</v>
@@ -5712,7 +5779,7 @@
         <v>21</v>
       </c>
       <c r="AV29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW29" t="n">
         <v>15</v>
@@ -5721,13 +5788,13 @@
         <v>22</v>
       </c>
       <c r="AY29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ29" t="n">
         <v>21</v>
       </c>
       <c r="BA29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB29" t="n">
         <v>4</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -5840,10 +5907,10 @@
         <v>0</v>
       </c>
       <c r="AD30" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AE30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF30" t="n">
         <v>18</v>
@@ -5861,7 +5928,7 @@
         <v>29</v>
       </c>
       <c r="AK30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL30" t="n">
         <v>17</v>
@@ -5870,7 +5937,7 @@
         <v>17</v>
       </c>
       <c r="AN30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO30" t="n">
         <v>16</v>
@@ -5900,7 +5967,7 @@
         <v>21</v>
       </c>
       <c r="AX30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY30" t="n">
         <v>12</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" t="n">
         <v>40</v>
       </c>
       <c r="F31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G31" t="n">
-        <v>0.58</v>
+        <v>0.588</v>
       </c>
       <c r="H31" t="n">
         <v>48.4</v>
@@ -5962,10 +6029,10 @@
         <v>38.4</v>
       </c>
       <c r="J31" t="n">
-        <v>82.2</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>0.467</v>
+        <v>0.468</v>
       </c>
       <c r="L31" t="n">
         <v>6</v>
@@ -5974,7 +6041,7 @@
         <v>16.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O31" t="n">
         <v>15.8</v>
@@ -5983,7 +6050,7 @@
         <v>21.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.744</v>
+        <v>0.743</v>
       </c>
       <c r="R31" t="n">
         <v>10.4</v>
@@ -5992,10 +6059,10 @@
         <v>33.6</v>
       </c>
       <c r="T31" t="n">
-        <v>43.9</v>
+        <v>44</v>
       </c>
       <c r="U31" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="V31" t="n">
         <v>15</v>
@@ -6010,25 +6077,25 @@
         <v>4.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AA31" t="n">
         <v>19.8</v>
       </c>
       <c r="AB31" t="n">
-        <v>98.7</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AE31" t="n">
         <v>12</v>
       </c>
       <c r="AF31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG31" t="n">
         <v>12</v>
@@ -6037,7 +6104,7 @@
         <v>13</v>
       </c>
       <c r="AI31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ31" t="n">
         <v>24</v>
@@ -6061,13 +6128,13 @@
         <v>24</v>
       </c>
       <c r="AQ31" t="n">
+        <v>22</v>
+      </c>
+      <c r="AR31" t="n">
         <v>20</v>
       </c>
-      <c r="AR31" t="n">
-        <v>21</v>
-      </c>
       <c r="AS31" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AT31" t="n">
         <v>11</v>
@@ -6076,7 +6143,7 @@
         <v>6</v>
       </c>
       <c r="AV31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW31" t="n">
         <v>20</v>
@@ -6088,13 +6155,13 @@
         <v>7</v>
       </c>
       <c r="AZ31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA31" t="n">
         <v>21</v>
       </c>
       <c r="BB31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC31" t="n">
         <v>13</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-20-2014-15</t>
+          <t>2015-03-20</t>
         </is>
       </c>
     </row>
